--- a/Versuch-4-3-Wärmestrahlung_und_Konvektion/Versuchsdaten/Versuchsdaten.xlsx
+++ b/Versuch-4-3-Wärmestrahlung_und_Konvektion/Versuchsdaten/Versuchsdaten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benny\git\Ausarbeitungen_Physikpraktikum_SoSe2022\Versuch-4-3-Wärmestrahlung_und_Konvektion\Versuchsdaten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1F491F-CBCD-469B-B041-FFD0D95C4EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE786C7-08D0-471B-92AD-03AE22526F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20596" windowHeight="14378" activeTab="2" xr2:uid="{447A4059-B379-42FC-B916-669F8DAE493A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{447A4059-B379-42FC-B916-669F8DAE493A}"/>
   </bookViews>
   <sheets>
     <sheet name="Teil A" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Widerstand Glühfaden</t>
   </si>
@@ -79,10 +79,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -261,69 +268,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -338,11 +287,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -374,36 +323,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -451,18 +370,6 @@
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
-                <a:noFill/>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -477,8 +384,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.33989545056867893"/>
-                  <c:y val="-8.9367891513560824E-2"/>
+                  <c:x val="-0.34545100612423446"/>
+                  <c:y val="-9.7459629353149502E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -641,6 +548,73 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-806C-420E-B230-7E26722D742E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Widerstände</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Teil A'!$F$34,'Teil A'!$F$33)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>786</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Teil A'!$C$34,'Teil A'!$C$33)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.8352715097965409</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2515287031121662</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3D9A-4C37-BFB7-433CF4D6D31B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1718,21 +1692,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E5EE45-CC5F-476F-8657-454BA88FECC8}">
-  <dimension ref="B5:E34"/>
+  <dimension ref="B4:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -1743,7 +1721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -1754,8 +1732,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="10" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
@@ -1769,7 +1747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>900</v>
       </c>
@@ -1784,7 +1762,7 @@
         <v>0.62156999999999996</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>1000</v>
       </c>
@@ -1799,7 +1777,7 @@
         <v>0.65336000000000005</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>1100</v>
       </c>
@@ -1814,7 +1792,7 @@
         <v>0.68754999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>1200</v>
       </c>
@@ -1829,7 +1807,7 @@
         <v>0.71514999999999995</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>1300</v>
       </c>
@@ -1844,7 +1822,7 @@
         <v>0.74219999999999997</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>1400</v>
       </c>
@@ -1859,7 +1837,7 @@
         <v>0.76592000000000005</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>1500</v>
       </c>
@@ -1874,7 +1852,7 @@
         <v>0.78888999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>1600</v>
       </c>
@@ -1889,7 +1867,7 @@
         <v>0.80642999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>1700</v>
       </c>
@@ -1904,7 +1882,7 @@
         <v>0.82206999999999997</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>1800</v>
       </c>
@@ -1919,7 +1897,7 @@
         <v>0.83652000000000004</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>1900</v>
       </c>
@@ -1934,7 +1912,7 @@
         <v>0.84930000000000005</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>2000</v>
       </c>
@@ -1949,7 +1927,7 @@
         <v>0.86082999999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>2100</v>
       </c>
@@ -1964,7 +1942,7 @@
         <v>0.87119000000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <v>2200</v>
       </c>
@@ -1979,7 +1957,7 @@
         <v>0.87921000000000005</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <v>2300</v>
       </c>
@@ -1994,7 +1972,7 @@
         <v>0.88688</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>2400</v>
       </c>
@@ -2009,7 +1987,7 @@
         <v>0.89605000000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="10">
         <v>2500</v>
       </c>
@@ -2024,34 +2002,40 @@
         <v>0.90098</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="32" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C32" s="14" t="s">
+    <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F32" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="5">
         <f>D33/E33</f>
         <v>2.2515287031121662</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="2">
         <v>1.2335</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="2">
         <v>0.54784999999999995</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F33" s="16">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
         <v>9</v>
       </c>
@@ -2059,11 +2043,14 @@
         <f>D34/E34</f>
         <v>1.8352715097965409</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="14">
         <v>0.92639000000000005</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="14">
         <v>0.50477000000000005</v>
+      </c>
+      <c r="F34" s="12">
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -2081,9 +2068,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -2097,9 +2084,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FBFE04-492B-485B-8F7A-6E77735F8767}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Versuch-4-3-Wärmestrahlung_und_Konvektion/Versuchsdaten/Versuchsdaten.xlsx
+++ b/Versuch-4-3-Wärmestrahlung_und_Konvektion/Versuchsdaten/Versuchsdaten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benny\git\Ausarbeitungen_Physikpraktikum_SoSe2022\Versuch-4-3-Wärmestrahlung_und_Konvektion\Versuchsdaten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE786C7-08D0-471B-92AD-03AE22526F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5EA267-5600-43A2-859B-110C17520BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{447A4059-B379-42FC-B916-669F8DAE493A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{447A4059-B379-42FC-B916-669F8DAE493A}"/>
   </bookViews>
   <sheets>
     <sheet name="Teil A" sheetId="1" r:id="rId1"/>
@@ -95,12 +95,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -272,19 +278,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -292,6 +294,13 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -425,7 +434,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>13.4</c:v>
+                  <c:v>23.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>900</c:v>
@@ -1694,23 +1703,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E5EE45-CC5F-476F-8657-454BA88FECC8}">
   <dimension ref="B4:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -1721,335 +1730,335 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>13.4</v>
+        <v>23.4</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+    <row r="9" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="10" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="14">
         <v>900</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <f>D11/E11</f>
         <v>2.3416509805814312</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="17">
         <v>1.4555</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>0.62156999999999996</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="15">
         <v>1000</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <f t="shared" ref="C12:C25" si="0">D12/E12</f>
         <v>2.5070405289580013</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="18">
         <v>1.6379999999999999</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="5">
         <v>0.65336000000000005</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="15">
         <v>1100</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>2.7327467093302307</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="18">
         <v>1.8789</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <v>0.68754999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="15">
         <v>1200</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>2.8996713976088935</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="18">
         <v>2.0737000000000001</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="5">
         <v>0.71514999999999995</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="7">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B15" s="15">
         <v>1300</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>3.055780113177041</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="18">
         <v>2.2679999999999998</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="5">
         <v>0.74219999999999997</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B16" s="15">
         <v>1400</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>3.1922393983705866</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="18">
         <v>2.4449999999999998</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="6">
         <v>0.76592000000000005</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="7">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="15">
         <v>1500</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>3.3221361660054001</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="18">
         <v>2.6208</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="6">
         <v>0.78888999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B18" s="15">
         <v>1600</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>3.411455427005444</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="18">
         <v>2.7511000000000001</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="6">
         <v>0.80642999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="7">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B19" s="15">
         <v>1700</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>3.5063923996739939</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="18">
         <v>2.8824999999999998</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="6">
         <v>0.82206999999999997</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="7">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" s="15">
         <v>1800</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>3.5915459283699134</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="18">
         <v>3.0044</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="6">
         <v>0.83652000000000004</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="7">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B21" s="15">
         <v>1900</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>3.67031673142588</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="18">
         <v>3.1172</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="6">
         <v>0.84930000000000005</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="7">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22" s="15">
         <v>2000</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>3.7645063485240993</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="18">
         <v>3.2406000000000001</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="6">
         <v>0.86082999999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="7">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" s="15">
         <v>2100</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>3.8051400957311263</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="18">
         <v>3.3149999999999999</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="6">
         <v>0.87119000000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="7">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B24" s="15">
         <v>2200</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>3.8548242171949818</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="18">
         <v>3.3892000000000002</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="6">
         <v>0.87921000000000005</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="7">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B25" s="15">
         <v>2300</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>4.0111401767995671</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="18">
         <v>3.5573999999999999</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="6">
         <v>0.88688</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="7">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B26" s="15">
         <v>2400</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <f>D26/E26</f>
         <v>4.0648401316890803</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="18">
         <v>3.6423000000000001</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="6">
         <v>0.89605000000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="10">
+    <row r="27" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="16">
         <v>2500</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <f>D27/E27</f>
         <v>4.0598015494239608</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="19">
         <v>3.6577999999999999</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="8">
         <v>0.90098</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="4" t="s">
+    <row r="31" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="32" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="13" t="s">
+    <row r="33" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B33" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="3">
         <f>D33/E33</f>
         <v>2.2515287031121662</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>1.2335</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>0.54784999999999995</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="12">
         <v>786</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="13" t="s">
+    <row r="34" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B34" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="7">
         <f>D34/E34</f>
         <v>1.8352715097965409</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="10">
         <v>0.92639000000000005</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="10">
         <v>0.50477000000000005</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="8">
         <v>541</v>
       </c>
     </row>
@@ -2068,9 +2077,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -2086,7 +2095,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
